--- a/medicine/Enfance/Langelot_et_les_Cosmonautes/Langelot_et_les_Cosmonautes.xlsx
+++ b/medicine/Enfance/Langelot_et_les_Cosmonautes/Langelot_et_les_Cosmonautes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot et les Cosmonautes est le treizième roman de la série Langelot, écrite par le Lieutenant X. Ce roman a été édité pour la première fois en 1970, dans la Bibliothèque verte.
@@ -514,17 +526,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Les « gentils »
-Capitaine Montferrand (alias Frisquet 1), chef de la section Protection du Service National d'Information Fonctionnelle.
+          <t>Les « gentils »</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Capitaine Montferrand (alias Frisquet 1), chef de la section Protection du Service National d'Information Fonctionnelle.
 Langelot (alias Frisquet 2, alias Pierre-Louis Crépon) : orphelin, agent peu expérimenté du Service National d'Information Fonctionnelle (S.N.I.F.), blond, 1,68 m, mince, « traits menus mais durs ».
 Jean Foster, jeune femme de 20 ans, présidente de la société Foster, placée sous la tutelle juridique de Sharman.
 Robert (« Bob ») Cunningham-Stuart, 23 ans, ingénieur, ami (et amoureux) de Jean.
-Tante Virginia.
-Les « méchants »
-Wallace Sharman (M. Bully), président de société Foster et tuteur de Jean Foster jusqu'à ses 21 ans, le « méchant » récurrent du roman. Il fait partie de l'organisation internationale SPHINX.
-Séraphin, Pedro et Pablo : hommes de main peu scrupuleux de Sharman.
-Commodore Burma : commandant du sous-marin du SPHINX.
-Sidney la Gélatine : l'un des dirigeants du SPHINX ; c'est lui qui a ordonné à Sharman de remplacer le climatiseur en bon état par un climatiseur défectueux afin que la société Foster endosse la responsabilité du désastre et fasse faillite.</t>
+Tante Virginia.</t>
         </is>
       </c>
     </row>
@@ -549,10 +561,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Principaux personnages</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les « méchants »</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Wallace Sharman (M. Bully), président de société Foster et tuteur de Jean Foster jusqu'à ses 21 ans, le « méchant » récurrent du roman. Il fait partie de l'organisation internationale SPHINX.
+Séraphin, Pedro et Pablo : hommes de main peu scrupuleux de Sharman.
+Commodore Burma : commandant du sous-marin du SPHINX.
+Sidney la Gélatine : l'un des dirigeants du SPHINX ; c'est lui qui a ordonné à Sharman de remplacer le climatiseur en bon état par un climatiseur défectueux afin que la société Foster endosse la responsabilité du désastre et fasse faillite.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Langelot_et_les_Cosmonautes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Langelot_et_les_Cosmonautes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une mission de routine pour Langelot : prendre en filature un client de l'Institut de cryogénie. Direction l'Hôtel George-V à Paris, où M. Bully règle sa note et s'en va à l'aéroport d'Orly pour, apparemment, prendre un vol pour Londres. En réalité, M. Bully vole pour New-York. À la grande surprise de Langelot, le capitaine Montferrand lui ordonne de partir par le même avion. Langelot découvre que M. Bully s'appelle en fait Wallace G. Sharman, vice-président de société.
 Le lieutenant Charles du SNIF apporte à Langelot un passeport au nom de Pierre-Louis Crépon. M. Sharman est un client bien particulier de l'Institut de Cryogénie. En fait, le climatiseur de pointe à six millions de francs qu'il embarque dans ses bagages a été spécifiquement construit pour ne pas fonctionner.
@@ -562,36 +615,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Langelot_et_les_Cosmonautes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Langelot_et_les_Cosmonautes</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Les différentes éditions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1970 - Hachette, Bibliothèque verte (français, version originale). Illustré par Maurice Paulin.</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -613,10 +636,44 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Les différentes éditions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1970 - Hachette, Bibliothèque verte (français, version originale). Illustré par Maurice Paulin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Langelot_et_les_Cosmonautes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Langelot_et_les_Cosmonautes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Remarques autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le titre est inexact à double titre :
 d'une part le titre emploie le terme de « cosmonaute », utilisé pour des Soviétiques ou des Russes alors que celui d'« astronaute » convient pour des américains : Youri Gagarine était un cosmonaute et Buzz Aldrin, un astronaute (pour les Français et les Européens, le terme de « spationaute » est employé). Le terme d'astronaute est utilisé depuis 1958, le livre étant paru en 1970.
